--- a/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -70,6 +70,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú - òìïâîï øâåóïœîúê òàä!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tee-hee!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хи-хи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öé-öé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, as long as they\'re paying...\nHa ha ha!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0718.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, пока нам за это платят...\nХа-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, ðïëà îàí èà üóï ðìàóÿó...\nÖà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0804.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Going out with the whole gang\nis really what fun\'s all about! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Исследовать вместе со всеми - вот\nнастоящее веселье! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éòòìåäïâàóû âíåòóå òï âòåíé - âïó\nîàòóïÿþåå âåòåìûå! ♪</t>
   </si>
 </sst>
 </file>
@@ -100,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,11 +177,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -166,6 +213,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,20 +569,71 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>377</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8">
+        <v>352</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
+        <v>317</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
+        <v>298</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -106,6 +106,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Éòòìåäïâàóû âíåòóå òï âòåíé - âïó\nîàòóïÿþåå âåòåìûå! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder what you get when you\nwin big?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, что можно получить\nпри крупном выигрыше?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, œóï íïçîï ðïìôœéóû\nðñé ëñôðîïí âúéãñúšå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For sure! Happy-happy! ♪[K]\nTee-hee! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В самом деле! Рады-рады! ♪[K]\nХи-хии! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òàíïí äåìå! Ñàäú-ñàäú! ♪[K]\nÖé-öéé! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1505.ssb</t>
   </si>
 </sst>
 </file>
@@ -501,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,6 +663,45 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8">
+        <v>279</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>260</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -133,6 +133,69 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um1505.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you for saving the world!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам за спасение мира!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí èà òðàòåîéå íéñà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That mountain almost reaches\npast the sky! I can\'t wait to climb it! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñšéîà üóïê ãïñú äïòóéãàåó\nîåáåò! Ÿ óàë öïœô îà îåæ âèïáñàóûòÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вершина этой горы достигает\nнебес! Я так хочу на неё взобраться! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wow! ♪ A flower garden! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3122.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô! ♪ Øâåóïœîúê òàä! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау! ♪ Цветочный сад! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder who made the\nSecret Room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s so mysterious! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, кто создал Секретную\nКомнату.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как таинственно! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ëóï òïèäàì Òåëñåóîôý\nËïíîàóô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óàéîòóâåîîï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Those [CS:N]Shaymin[CR] have a wide\nknowledge of many things! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Шеймины[CR] о многом знают! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Šåêíéîú[CR] ï íîïãïí èîàýó! ♪</t>
   </si>
 </sst>
 </file>
@@ -528,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,8 +761,105 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8">
+        <v>235</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8">
+        <v>216</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4">
+        <v>197</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>175</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>178</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>156</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -196,6 +196,72 @@
   </si>
   <si>
     <t xml:space="preserve"> [CS:N]Šåêíéîú[CR] ï íîïãïí èîàýó! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is only the base of the\nmountain. Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это только подножие горы.\nХа-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óïìûëï ðïäîïçéå ãïñú.\nÖà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0210.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was so much fun talking with\n[CS:N]Shaymin[CR]! ♪ Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Болтать с [CS:N]Шейминами[CR] так весело! ♪\nХа-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áïìóàóû ò [CS:N]Šåêíéîàíé[CR] óàë âåòåìï! ♪\nÖà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0408.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, wow! How nice! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, вау! Как здорово! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, âàô! Ëàë èäïñïâï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A [CS:I]Wonder Gummi[CR] is a very rare\nGummi found somewhere in the world! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0409.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2004.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Œôäï-Çåìå[CR] üóï îåâåñïÿóîï ñåäëïå\nÇåìå! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Чудо-Желе[CR] это невероятно редкое\nЖеле! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2206.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí!</t>
   </si>
 </sst>
 </file>
@@ -226,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,11 +344,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -309,6 +384,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,17 +930,120 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>156</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6">
+        <v>134</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4">
+        <v>102</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="8">
+        <v>83</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="4">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ледиба.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé âàí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s superfun! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне супервесело! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå òôðåñâåòåìï! ♪</t>
   </si>
 </sst>
 </file>
@@ -672,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,20 +1042,37 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="8">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="9" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
